--- a/app/templates/report/dashboard.xlsx
+++ b/app/templates/report/dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EB4F1E-DE38-4797-9472-414078380188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1038CE-1A6B-4509-A63E-F4F9D20685D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dashboard!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dashboard!$B$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Reservas</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -552,65 +555,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="35" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="24.85546875" style="1"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="4" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="35" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="24.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:G2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:H2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/dashboard.xlsx
+++ b/app/templates/report/dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1038CE-1A6B-4509-A63E-F4F9D20685D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0B1038CE-1A6B-4509-A63E-F4F9D20685D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C4B621F-55F1-4154-B029-4EDC7A865EDC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,9 +152,6 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -170,6 +167,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -256,6 +256,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,54 +574,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="B2:H2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/templates/report/dashboard.xlsx
+++ b/app/templates/report/dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{0B1038CE-1A6B-4509-A63E-F4F9D20685D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C4B621F-55F1-4154-B029-4EDC7A865EDC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073F06B9-4DBA-43E9-87FF-5895F57BA373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Reservas</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Incidencias</t>
+  </si>
+  <si>
+    <t>Desperfectos</t>
   </si>
 </sst>
 </file>
@@ -258,10 +264,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -559,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,17 +571,17 @@
     <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
     <col min="4" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="35" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="24.85546875" style="1"/>
+    <col min="7" max="10" width="35" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="24.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -604,8 +606,14 @@
       <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="I2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -620,6 +628,8 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:H2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
